--- a/biology/Mycologie/Russula_ochroleuca/Russula_ochroleuca.xlsx
+++ b/biology/Mycologie/Russula_ochroleuca/Russula_ochroleuca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La russule ocre et blanche (Russula ochroleuca) est un champignon basidiomycète de la famille des russulacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau 3 à 10 cm, convexe puis aplati et légèrement ondulé voire déprimé. Surface lisse et brillante, facilement séparable. Jaune, se teinte d'ocre avec l'âge (ochro).
 Lames et sporée blanches (leuca).
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Courante sur sol acide ou sableux. Indifféremment sous feuillus et conifères.
 </t>
@@ -575,7 +591,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Non comestible.
 </t>
@@ -606,7 +624,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Régis Courtecuisse et Bernard Duhem, Guide des champignons de France et d'Europe, Delachaux et Niestlé (1re éd. 1994)
 Sur les autres projets Wikimedia :
